--- a/API_ESTUDIANTES.xlsx
+++ b/API_ESTUDIANTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emely Tecu\Desktop\SQA\Api_Estudiante\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03B6749-0C64-488A-AE43-E82C6647BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F6BA73-0D51-4765-954C-A31048B3338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE178E93-5D12-40F9-970F-E33B2C35C709}"/>
   </bookViews>
@@ -127,8 +127,79 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>{ "first_name": "Juan", "last_name": "Pérez", "birthdate": "2000-01-01" }</t>
+    <t>Nombre, Apellido, Fecha de Nacimiento</t>
+  </si>
+  <si>
+    <t>Código HTTP 201.</t>
+  </si>
+  <si>
+    <t>JSON con los datos del estudiante registrado.</t>
+  </si>
+  <si>
+    <t>La API responde con el código HTTP 201 y muestra los datos del estudiante creado.</t>
+  </si>
+  <si>
+    <t>CP-002</t>
+  </si>
+  <si>
+    <t>Validación de Campos Obligatorios</t>
+  </si>
+  <si>
+    <t>Verificar que no se permita crear un estudiante si faltan campos obligatorios.</t>
+  </si>
+  <si>
+    <t>La API debe estar activa y en funcionamiento.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviar una solicitud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/api/students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> omitiendo el campo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>first_name</t>
     </r>
     <r>
       <rPr>
@@ -142,28 +213,25 @@
     </r>
   </si>
   <si>
-    <t>Nombre, Apellido, Fecha de Nacimiento</t>
-  </si>
-  <si>
-    <t>Código HTTP 201.</t>
-  </si>
-  <si>
-    <t>JSON con los datos del estudiante registrado.</t>
-  </si>
-  <si>
-    <t>La API responde con el código HTTP 201 y muestra los datos del estudiante creado.</t>
-  </si>
-  <si>
-    <t>CP-002</t>
-  </si>
-  <si>
-    <t>Validación de Campos Obligatorios</t>
-  </si>
-  <si>
-    <t>Verificar que no se permita crear un estudiante si faltan campos obligatorios.</t>
-  </si>
-  <si>
-    <t>La API debe estar activa y en funcionamiento.</t>
+    <t>Apellido, Fecha de Nacimiento</t>
+  </si>
+  <si>
+    <t>Código HTTP 400.</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando el campo faltante.</t>
+  </si>
+  <si>
+    <t>La API responde con el código HTTP 400 y muestra el mensaje de error correspondiente.</t>
+  </si>
+  <si>
+    <t>CP-003</t>
+  </si>
+  <si>
+    <t>Verificación de Tipos de Datos</t>
+  </si>
+  <si>
+    <t>Asegurarse de que la API valide correctamente los tipos de datos de los campos.</t>
   </si>
   <si>
     <r>
@@ -206,7 +274,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> omitiendo el campo </t>
+      <t xml:space="preserve"> con </t>
     </r>
     <r>
       <rPr>
@@ -214,7 +282,89 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>first_name</t>
+      <t>birthdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> como texto no válido (por ejemplo, "fecha_incorrecta").</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre, Apellido, Texto no válido como Fecha de Nacimiento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mensaje de error indicando que el tipo de dato de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>birthdate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es incorrecto.</t>
+    </r>
+  </si>
+  <si>
+    <t>CP-004</t>
+  </si>
+  <si>
+    <t>Consulta de Estudiante por ID</t>
+  </si>
+  <si>
+    <t>Comprobar que la API permita consultar un estudiante específico por su ID.</t>
+  </si>
+  <si>
+    <t>Un estudiante existente con ID 1.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviar una solicitud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/api/students/1</t>
     </r>
     <r>
       <rPr>
@@ -228,25 +378,25 @@
     </r>
   </si>
   <si>
-    <t>Apellido, Fecha de Nacimiento</t>
-  </si>
-  <si>
-    <t>Código HTTP 400.</t>
-  </si>
-  <si>
-    <t>Mensaje de error indicando el campo faltante.</t>
-  </si>
-  <si>
-    <t>La API responde con el código HTTP 400 y muestra el mensaje de error correspondiente.</t>
-  </si>
-  <si>
-    <t>CP-003</t>
-  </si>
-  <si>
-    <t>Verificación de Tipos de Datos</t>
-  </si>
-  <si>
-    <t>Asegurarse de que la API valide correctamente los tipos de datos de los campos.</t>
+    <t>ID del estudiante</t>
+  </si>
+  <si>
+    <t>Código HTTP 200.</t>
+  </si>
+  <si>
+    <t>JSON con los datos del estudiante solicitado.</t>
+  </si>
+  <si>
+    <t>La API responde con el código HTTP 200 y muestra los datos del estudiante consultado.</t>
+  </si>
+  <si>
+    <t>CP-005</t>
+  </si>
+  <si>
+    <t>Actualización de Datos del Estudiante</t>
+  </si>
+  <si>
+    <t>Verificar que la API permita actualizar los datos de un estudiante existente.</t>
   </si>
   <si>
     <r>
@@ -261,6 +411,318 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>PUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/api/students/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con datos actualizados del estudiante:</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre actualizado</t>
+  </si>
+  <si>
+    <t>JSON con los datos actualizados del estudiante.</t>
+  </si>
+  <si>
+    <t>La API responde con el código HTTP 200 y muestra los datos actualizados del estudiante.</t>
+  </si>
+  <si>
+    <t>CP-006</t>
+  </si>
+  <si>
+    <t>Eliminación de Estudiante</t>
+  </si>
+  <si>
+    <t>Verificar que la API permita eliminar un estudiante específico.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviar una solicitud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/api/students/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Código HTTP 204.</t>
+  </si>
+  <si>
+    <t>No hay contenido en la respuesta.</t>
+  </si>
+  <si>
+    <t>La API responde con el código HTTP 204 sin contenido en la respuesta.</t>
+  </si>
+  <si>
+    <t>CP-007</t>
+  </si>
+  <si>
+    <t>Validación de Datos al Consultar Pagos</t>
+  </si>
+  <si>
+    <t>Comprobar que la API devuelva solo los pagos correspondientes al estudiante solicitado.</t>
+  </si>
+  <si>
+    <t>Estudiante con pagos registrados.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviar una solicitud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/api/payments?student_id=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JSON con los pagos correspondientes al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>student_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indicado.</t>
+    </r>
+  </si>
+  <si>
+    <t>La API responde con el código HTTP 200 y muestra los pagos correspondientes al estudiante solicitado.</t>
+  </si>
+  <si>
+    <t>CP-008</t>
+  </si>
+  <si>
+    <t>Validación de Rango de Fechas en Consulta de Pagos</t>
+  </si>
+  <si>
+    <t>Verificar que la API permita consultar pagos en un rango de fechas específico.</t>
+  </si>
+  <si>
+    <t>Estudiante con pagos registrados en distintas fechas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviar una solicitud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>/api/payments?student_id=1&amp;start_date=2024-11-01&amp;end_date=2024-11-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>student_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>start_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>end_date</t>
+    </r>
+  </si>
+  <si>
+    <t>JSON con los pagos realizados entre las fechas indicadas.</t>
+  </si>
+  <si>
+    <t>La API responde con el código HTTP 200 y muestra los pagos realizados en el rango de fechas especificado.</t>
+  </si>
+  <si>
+    <t>CP-009</t>
+  </si>
+  <si>
+    <t>Prueba de Rendimiento en Creación de Estudiantes</t>
+  </si>
+  <si>
+    <t>Evaluar que la API responda dentro del tiempo especificado al crear múltiples estudiantes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviar múltiples solicitudes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>POST</t>
     </r>
     <r>
@@ -271,86 +733,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>/api/students</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> con </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>birthdate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> como texto no válido (por ejemplo, "fecha_incorrecta").</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre, Apellido, Texto no válido como Fecha de Nacimiento</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mensaje de error indicando que el tipo de dato de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>birthdate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> es incorrecto.</t>
-    </r>
-  </si>
-  <si>
-    <t>CP-004</t>
-  </si>
-  <si>
-    <t>Consulta de Estudiante por ID</t>
-  </si>
-  <si>
-    <t>Comprobar que la API permita consultar un estudiante específico por su ID.</t>
-  </si>
-  <si>
-    <t>Un estudiante existente con ID 1.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enviar una solicitud </t>
+      <t xml:space="preserve"> para crear estudiantes y medir el tiempo de respuesta.</t>
+    </r>
+  </si>
+  <si>
+    <t>Varios registros de estudiantes</t>
+  </si>
+  <si>
+    <t>Tiempo de respuesta menor a 2 segundos por solicitud.</t>
+  </si>
+  <si>
+    <t>La API responde dentro del tiempo especificado.</t>
+  </si>
+  <si>
+    <t>CP-010</t>
+  </si>
+  <si>
+    <t>Integridad de Datos en Actualización Masiva</t>
+  </si>
+  <si>
+    <t>Asegurar que la API mantenga la integridad de datos al realizar una actualización masiva de estudiantes.</t>
+  </si>
+  <si>
+    <t>Base de datos con múltiples estudiantes registrados.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enviar una solicitud de actualización masiva mediante </t>
     </r>
     <r>
       <rPr>
@@ -361,25 +770,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>GET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>/api/students/1</t>
+      <t>PUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a un conjunto de estudiantes, verificando que todos los datos se actualicen sin errores.</t>
+    </r>
+  </si>
+  <si>
+    <t>Varias entradas de estudiantes</t>
+  </si>
+  <si>
+    <t>JSON con los datos actualizados de cada estudiante en la base de datos.</t>
+  </si>
+  <si>
+    <t>La API responde correctamente y mantiene la integridad de datos en cada actualización.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <r>
+      <t>{ "first_name": "Maria", "last_name": "Alvarado", "birthdate": "2000-01-01" }</t>
     </r>
     <r>
       <rPr>
@@ -393,73 +811,8 @@
     </r>
   </si>
   <si>
-    <t>ID del estudiante</t>
-  </si>
-  <si>
-    <t>Código HTTP 200.</t>
-  </si>
-  <si>
-    <t>JSON con los datos del estudiante solicitado.</t>
-  </si>
-  <si>
-    <t>La API responde con el código HTTP 200 y muestra los datos del estudiante consultado.</t>
-  </si>
-  <si>
-    <t>CP-005</t>
-  </si>
-  <si>
-    <t>Actualización de Datos del Estudiante</t>
-  </si>
-  <si>
-    <t>Verificar que la API permita actualizar los datos de un estudiante existente.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enviar una solicitud </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>/api/students/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> con datos actualizados del estudiante:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{ "first_name": "Juan Carlos", "last_name": "Pérez" }</t>
+    <r>
+      <t>{ "first_name": "Maria", "last_name": "Alvarado Sical" }</t>
     </r>
     <r>
       <rPr>
@@ -471,359 +824,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Nombre actualizado</t>
-  </si>
-  <si>
-    <t>JSON con los datos actualizados del estudiante.</t>
-  </si>
-  <si>
-    <t>La API responde con el código HTTP 200 y muestra los datos actualizados del estudiante.</t>
-  </si>
-  <si>
-    <t>CP-006</t>
-  </si>
-  <si>
-    <t>Eliminación de Estudiante</t>
-  </si>
-  <si>
-    <t>Verificar que la API permita eliminar un estudiante específico.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enviar una solicitud </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DELETE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>/api/students/1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Código HTTP 204.</t>
-  </si>
-  <si>
-    <t>No hay contenido en la respuesta.</t>
-  </si>
-  <si>
-    <t>La API responde con el código HTTP 204 sin contenido en la respuesta.</t>
-  </si>
-  <si>
-    <t>CP-007</t>
-  </si>
-  <si>
-    <t>Validación de Datos al Consultar Pagos</t>
-  </si>
-  <si>
-    <t>Comprobar que la API devuelva solo los pagos correspondientes al estudiante solicitado.</t>
-  </si>
-  <si>
-    <t>Estudiante con pagos registrados.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enviar una solicitud </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>/api/payments?student_id=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JSON con los pagos correspondientes al </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>student_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> indicado.</t>
-    </r>
-  </si>
-  <si>
-    <t>La API responde con el código HTTP 200 y muestra los pagos correspondientes al estudiante solicitado.</t>
-  </si>
-  <si>
-    <t>CP-008</t>
-  </si>
-  <si>
-    <t>Validación de Rango de Fechas en Consulta de Pagos</t>
-  </si>
-  <si>
-    <t>Verificar que la API permita consultar pagos en un rango de fechas específico.</t>
-  </si>
-  <si>
-    <t>Estudiante con pagos registrados en distintas fechas.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enviar una solicitud </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>/api/payments?student_id=1&amp;start_date=2024-11-01&amp;end_date=2024-11-30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>student_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>start_date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>end_date</t>
-    </r>
-  </si>
-  <si>
-    <t>JSON con los pagos realizados entre las fechas indicadas.</t>
-  </si>
-  <si>
-    <t>La API responde con el código HTTP 200 y muestra los pagos realizados en el rango de fechas especificado.</t>
-  </si>
-  <si>
-    <t>CP-009</t>
-  </si>
-  <si>
-    <t>Prueba de Rendimiento en Creación de Estudiantes</t>
-  </si>
-  <si>
-    <t>Evaluar que la API responda dentro del tiempo especificado al crear múltiples estudiantes.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enviar múltiples solicitudes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>POST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> para crear estudiantes y medir el tiempo de respuesta.</t>
-    </r>
-  </si>
-  <si>
-    <t>Varios registros de estudiantes</t>
-  </si>
-  <si>
-    <t>Tiempo de respuesta menor a 2 segundos por solicitud.</t>
-  </si>
-  <si>
-    <t>La API responde dentro del tiempo especificado.</t>
-  </si>
-  <si>
-    <t>CP-010</t>
-  </si>
-  <si>
-    <t>Integridad de Datos en Actualización Masiva</t>
-  </si>
-  <si>
-    <t>Asegurar que la API mantenga la integridad de datos al realizar una actualización masiva de estudiantes.</t>
-  </si>
-  <si>
-    <t>Base de datos con múltiples estudiantes registrados.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enviar una solicitud de actualización masiva mediante </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a un conjunto de estudiantes, verificando que todos los datos se actualicen sin errores.</t>
-    </r>
-  </si>
-  <si>
-    <t>Varias entradas de estudiantes</t>
-  </si>
-  <si>
-    <t>JSON con los datos actualizados de cada estudiante en la base de datos.</t>
-  </si>
-  <si>
-    <t>La API responde correctamente y mantiene la integridad de datos en cada actualización.</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0430BB-247B-4283-BE21-5AE48B517D36}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1242,9 +1242,9 @@
     <col min="11" max="11" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2">
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="86.4">
+    <row r="2" spans="1:11" ht="57.6">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1294,19 +1294,19 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="106.8">
+    <row r="3" spans="1:11" ht="67.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1314,11 +1314,11 @@
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1327,34 +1327,34 @@
     </row>
     <row r="4" spans="1:11" ht="57.6" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="72">
+    <row r="5" spans="1:11" ht="43.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1362,7 +1362,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1371,34 +1371,34 @@
     </row>
     <row r="6" spans="1:11" ht="43.2" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="100.8">
+    <row r="7" spans="1:11" ht="57.6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1406,193 +1406,193 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="72">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="57.6">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="114">
+    <row r="10" spans="1:11" ht="72">
       <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="80.400000000000006">
+    <row r="11" spans="1:11" ht="43.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="72">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="57.6">
+    <row r="13" spans="1:11" ht="28.8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="72">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="86.4">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1601,74 +1601,74 @@
     </row>
     <row r="16" spans="1:11" ht="72" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="F16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="86.4">
+    <row r="17" spans="1:11" ht="43.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="129.6">
+    <row r="18" spans="1:11" ht="72">
       <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1676,44 +1676,44 @@
     </row>
     <row r="19" spans="1:11" ht="86.4" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="100.8">
+    <row r="20" spans="1:11" ht="57.6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1722,26 +1722,51 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
@@ -1758,51 +1783,26 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
